--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:13:26+00:00</t>
+    <t>2024-10-15T18:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T18:43:47+00:00</t>
+    <t>2024-10-23T18:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:46:58+00:00</t>
+    <t>2024-10-24T18:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:05:53+00:00</t>
+    <t>2024-10-31T18:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T18:32:51+00:00</t>
+    <t>2024-12-09T22:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:50:07+00:00</t>
+    <t>2024-12-09T22:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:59:04+00:00</t>
+    <t>2024-12-09T23:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:04:44+00:00</t>
+    <t>2025-01-11T00:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T00:36:26+00:00</t>
+    <t>2025-01-17T23:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T23:10:16+00:00</t>
+    <t>2025-02-07T23:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T23:01:35+00:00</t>
+    <t>2025-05-12T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/ValueSet-bc-merge-status-value-set.xlsx
+++ b/release-branch/ValueSet-bc-merge-status-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
